--- a/Programming/DSA/Problems List (Striver A-Z DSA Sheet).xlsx
+++ b/Programming/DSA/Problems List (Striver A-Z DSA Sheet).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nothing Interesting\Programming\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979591A-B103-45AA-9348-596FEA5964C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B9EBE-9C6A-484B-8BBC-6F3559D517D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>No.</t>
   </si>
@@ -136,13 +136,58 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/studio/problems/sum-of-all-divisors_8360720?leftPanelTabValue=PROBLEM</t>
+  </si>
+  <si>
+    <t>Didn’t Solve Any</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Check Prime</t>
+  </si>
+  <si>
+    <t>Basic Math</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/check-prime_624934</t>
+  </si>
+  <si>
+    <t>1 to N Without loop</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/print-1-to-n_628290?leftPanelTabValue=PROBLEM</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Print N Times</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/-print-n-times_8380707?leftPanelTabValue=PROBLEM</t>
+  </si>
+  <si>
+    <t>Count7</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p101409</t>
+  </si>
+  <si>
+    <t>N to One</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/n-to-1-without-loop_8357243?leftPanelTabValue=PROBLEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -233,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +339,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,11 +644,12 @@
     <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="71.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="7" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,8 +668,11 @@
       <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -618,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -635,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -652,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -669,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -687,7 +758,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,12 +777,15 @@
       <c r="F8" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -728,7 +802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -748,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -767,8 +841,11 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
@@ -778,7 +855,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -795,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -812,7 +889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -827,6 +904,113 @@
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45320</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45320</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
